--- a/data/financial_statements/sofp/NFLX.xlsx
+++ b/data/financial_statements/sofp/NFLX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,678 +593,690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>6114000000</v>
+        <v>6058452000</v>
       </c>
       <c r="C2">
-        <v>5819000000</v>
+        <v>6113733000</v>
       </c>
       <c r="D2">
-        <v>6009000000</v>
+        <v>5819449000</v>
       </c>
       <c r="E2">
-        <v>6028000000</v>
+        <v>6008946000</v>
       </c>
       <c r="F2">
-        <v>7527000000</v>
+        <v>6027804000</v>
       </c>
       <c r="G2">
+        <v>7526681000</v>
+      </c>
+      <c r="H2">
         <v>7777530000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8403705000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8205550000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>8392391000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>7153248000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5151884000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5018437000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4435018000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5004247000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3348557000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3794483000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3067534000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3906357000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2593666000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2822795000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1746469000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2164902000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1341229000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1733782000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1343256000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1834228000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2072471000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2310715000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2609642000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2796758000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2957708000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1608496000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1666819000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1714365000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1668243000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1200405000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1134987000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1080110000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1025872000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>2311000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1653000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1670000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1718000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1584000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1532000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1430000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1353000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1225000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1206000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1082000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>979000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>392000000</v>
+        <v>3208021000</v>
       </c>
       <c r="C4">
-        <v>368000000</v>
+        <v>2703170000</v>
       </c>
       <c r="D4">
-        <v>419000000</v>
+        <v>2021329000</v>
       </c>
       <c r="E4">
-        <v>324000000</v>
+        <v>2089069000</v>
       </c>
       <c r="F4">
-        <v>305000000</v>
+        <v>2042021000</v>
       </c>
       <c r="G4">
+        <v>1889106000</v>
+      </c>
+      <c r="H4">
         <v>1826746000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1703803000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1556030000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1434089000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1410891000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1295897000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1160067000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>892740000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>872910000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>820350000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5899652000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>5662447000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>5440532000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>5223910000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4847179000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>4638879000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>4535883000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>4319101000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3986509000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3850637000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3552690000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3471365000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3121125000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2960071000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2803752000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2581348000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2318557000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2156663000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1954015000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1918541000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1858358000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1683769000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1458148000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1473974000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>8817000000</v>
+        <v>9266473000</v>
       </c>
       <c r="C5">
-        <v>7841000000</v>
+        <v>8816903000</v>
       </c>
       <c r="D5">
-        <v>8098000000</v>
+        <v>7840778000</v>
       </c>
       <c r="E5">
-        <v>8070000000</v>
+        <v>8098015000</v>
       </c>
       <c r="F5">
-        <v>9416000000</v>
+        <v>8069825000</v>
       </c>
       <c r="G5">
+        <v>9415787000</v>
+      </c>
+      <c r="H5">
         <v>9604276000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>10107510000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9761580000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9826480000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8564139000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6447781000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>6178504000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>5327758000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>5877157000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4168907000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>9694135000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>8729981000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>9346889000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>7817576000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>7669974000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>6385348000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>6700785000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>5660330000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>5720291000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>5193893000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>5386918000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>5543836000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>5431840000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>5569713000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>5600510000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>5539056000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3927053000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>3823482000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>3668380000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3586784000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>3058763000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2849278000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2570322000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2557100000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>3584000000</v>
+        <v>1398257000</v>
       </c>
       <c r="C6">
-        <v>3703000000</v>
+        <v>1372754000</v>
       </c>
       <c r="D6">
-        <v>3868000000</v>
+        <v>1361920000</v>
       </c>
       <c r="E6">
-        <v>3770000000</v>
+        <v>1383763000</v>
       </c>
       <c r="F6">
-        <v>3470000000</v>
+        <v>1323453000</v>
       </c>
       <c r="G6">
+        <v>1220114000</v>
+      </c>
+      <c r="H6">
         <v>1107437000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1015419000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>960183000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>828118000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>751941000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>650455000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>565221000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>481992000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>452399000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>434372000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>418281000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>371152000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>349646000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>341932000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>319404000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>322421000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>309831000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>275083000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>250395000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>191876000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>162864000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>166254000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>173412000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>181268000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>171396000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>145816000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>149875000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>144147000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>141715000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>133473000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>133605000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>127263000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>127931000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>129319000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>24000000</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C7">
         <v>24000000</v>
       </c>
       <c r="D7">
+        <v>24000000</v>
+      </c>
+      <c r="E7">
         <v>25000000</v>
-      </c>
-      <c r="E7">
-        <v>24000000</v>
       </c>
       <c r="F7">
         <v>24000000</v>
@@ -1159,1174 +1285,1201 @@
         <v>24000000</v>
       </c>
       <c r="H7">
+        <v>24000000</v>
+      </c>
+      <c r="I7">
         <v>31000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>32000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>27000000</v>
-      </c>
-      <c r="K7">
-        <v>24000000</v>
       </c>
       <c r="L7">
         <v>24000000</v>
       </c>
       <c r="M7">
+        <v>24000000</v>
+      </c>
+      <c r="N7">
         <v>16000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
         <v>30920000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>28974000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>26044000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>35137000000</v>
+        <v>37930040000</v>
       </c>
       <c r="C9">
-        <v>34783000000</v>
+        <v>37372530000</v>
       </c>
       <c r="D9">
-        <v>33341000000</v>
+        <v>37148240000</v>
       </c>
       <c r="E9">
-        <v>32573000000</v>
+        <v>35849130000</v>
       </c>
       <c r="F9">
-        <v>29505000000</v>
+        <v>35191390000</v>
       </c>
       <c r="G9">
+        <v>32103960000</v>
+      </c>
+      <c r="H9">
         <v>30259260000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>29000090000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>28558600000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>27967950000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>27859200000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>27961670000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>27231990000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>25131960000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>23841780000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>22615350000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>15861980000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>14265100000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>12967000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>11993290000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>11023360000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>10243770000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>9506607000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>8423683000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>7615924000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>6961569000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>6043725000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>5552184000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>4597619000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>4165286000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>3882955000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>3555754000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>2965572000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2810700000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2515727000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>2327849000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>2220195000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1924784000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1782498000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1676870000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>39328290000</v>
+      </c>
+      <c r="C10">
         <v>38745290000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>38510160000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>37232890000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>36514840000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>33324070000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>31366690000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>30015510000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>29518780000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>28796060000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>28611140000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>28612130000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>27797210000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>25613950000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>24294180000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>23049720000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>16280270000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>14636250000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>13316650000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>12335220000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>11342770000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>10566190000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>9816438000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>8698766000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>7866319000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>7153445000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>6206589000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>5718438000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>4771031000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>4346554000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>4054351000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>3701570000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>3115447000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2954847000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2657442000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2461322000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2353800000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2052047000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1910429000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1806189000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>47562000000</v>
+        <v>48594770000</v>
       </c>
       <c r="C11">
-        <v>46351000000</v>
+        <v>47562190000</v>
       </c>
       <c r="D11">
-        <v>45331000000</v>
+        <v>46350930000</v>
       </c>
       <c r="E11">
-        <v>44585000000</v>
+        <v>45330900000</v>
       </c>
       <c r="F11">
-        <v>42740000000</v>
+        <v>44584660000</v>
       </c>
       <c r="G11">
+        <v>42739860000</v>
+      </c>
+      <c r="H11">
         <v>40970970000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>40123020000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>39280360000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>38622540000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>37175280000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>35059910000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>33975710000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>30941710000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>30171340000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>27218630000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>25974400000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>23366230000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>22663540000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>20152800000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>19012740000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>16951540000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>16517220000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>14359100000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>13586610000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>12347340000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>11593510000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>11262270000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>10202870000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>9916267000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>9654861000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>9240626000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>7042500000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>6778329000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>6325822000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>6048106000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>5412563000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>4901325000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>4480751000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>4363289000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
         <v>699823000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>699473000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>699128000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>698788000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>499878000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>499517000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>499161000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>498809000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>560000000</v>
+        <v>671513000</v>
       </c>
       <c r="C13">
-        <v>504000000</v>
+        <v>560156000</v>
       </c>
       <c r="D13">
-        <v>617000000</v>
+        <v>504278000</v>
       </c>
       <c r="E13">
-        <v>837000000</v>
+        <v>617202000</v>
       </c>
       <c r="F13">
-        <v>643000000</v>
+        <v>837483000</v>
       </c>
       <c r="G13">
+        <v>643059000</v>
+      </c>
+      <c r="H13">
         <v>622931000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>532942000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>656183000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>541298000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>446668000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>545488000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>674347000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>444129000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>442194000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>439496000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>562985000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>441427000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>448219000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>436183000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>359555000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>301443000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>273398000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>294831000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>312842000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>285753000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>240458000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>231914000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>253491000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>209365000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>211729000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>190567000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>201581000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>150374000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>137226000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>133883000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>108435000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>100899000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>103441000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>102822000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1514650000</v>
+      </c>
+      <c r="C14">
         <v>1803555000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1596035000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1817117000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1449351000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1413120000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1125591000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1291812000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1102196000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1259124000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>986595000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1061090000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>843043000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1037723000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>750812000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>746268000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>481874000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>527079000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>392595000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>429431000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>315094000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>331723000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>248871000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>296258000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>197632000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>201232000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>172073000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>181634000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>140389000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>179350000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>150406000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>107323000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>69746000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>70559000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>98548000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>54858000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>54018000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>46433000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>59035000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>52004000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>334000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>337000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>331000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1015000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>991000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>974000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>967000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>756000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>737000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>726000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>695000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>191000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>1264661000</v>
+      </c>
+      <c r="C16">
         <v>1176323000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1224743000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1239048000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1209342000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1182632000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1187364000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1140271000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1117992000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1040202000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1029261000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>986753000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>924745000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>915506000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>892777000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>808692000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>760899000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>716723000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>697740000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>673892000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>618622000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>535425000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>505302000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>458693000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>443472000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>427206000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>396976000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>374223000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>346721000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>329739000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>301754000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>285340000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>274586000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>252956000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>241330000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>230015000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>215767000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>195823000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>186571000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>178878000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>6871000000</v>
+        <v>4480150000</v>
       </c>
       <c r="C17">
-        <v>6659000000</v>
+        <v>4225890000</v>
       </c>
       <c r="D17">
-        <v>6792000000</v>
+        <v>4174966000</v>
       </c>
       <c r="E17">
-        <v>6636000000</v>
+        <v>4066289000</v>
       </c>
       <c r="F17">
-        <v>6416000000</v>
+        <v>4292967000</v>
       </c>
       <c r="G17">
+        <v>4110962000</v>
+      </c>
+      <c r="H17">
         <v>4197874000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4297957000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4429536000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4599654000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>4664733000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4761585000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>4413561000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>4860542000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>4848201000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>4863351000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>4681562000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4613011000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>4541087000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>4466081000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>4173041000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>4142086000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>4095374000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3861447000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>3632711000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>3497214000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>3242330000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3145861000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>2789023000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>2622964000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>2556180000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>2425619000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>2117241000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>2074766000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1858020000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1844897000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1775983000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1591981000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1321217000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1355010000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>7766000000</v>
+        <v>7930974000</v>
       </c>
       <c r="C18">
-        <v>7500000000</v>
+        <v>7765924000</v>
       </c>
       <c r="D18">
-        <v>7740000000</v>
+        <v>7500022000</v>
       </c>
       <c r="E18">
-        <v>8489000000</v>
+        <v>7739656000</v>
       </c>
       <c r="F18">
-        <v>8049000000</v>
+        <v>8488966000</v>
       </c>
       <c r="G18">
+        <v>8049246000</v>
+      </c>
+      <c r="H18">
         <v>7832888000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>7961770000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7805785000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>7939795000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7626418000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>7853725000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>6855696000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>7257900000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>6933984000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>6857807000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6487320000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>6298240000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>6079641000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>6005587000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>5466312000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>5310677000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>5122945000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>4911229000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>4586657000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>4411405000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>4051837000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>3933632000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3529624000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>3341418000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>3220069000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>3008849000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>2663154000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>2548655000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>2335124000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>2263653000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>2154203000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1935136000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1670264000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1688714000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>16098000000</v>
+        <v>14353080000</v>
       </c>
       <c r="C19">
-        <v>16572000000</v>
+        <v>13888120000</v>
       </c>
       <c r="D19">
-        <v>16969000000</v>
+        <v>14233300000</v>
       </c>
       <c r="E19">
-        <v>17102000000</v>
+        <v>14534560000</v>
       </c>
       <c r="F19">
-        <v>17016000000</v>
+        <v>14693070000</v>
       </c>
       <c r="G19">
+        <v>14793690000</v>
+      </c>
+      <c r="H19">
         <v>14926890000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>14860550000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>15809090000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>15547620000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>15295000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>14170690000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>14759260000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>12425750000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>12594130000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>10305020000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>10360060000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>8336586000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>8342067000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6542373000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>6499432000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>4888783000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>4836502000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>3365431000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>3364311000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2373966000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2373085000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2372218000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2371362000</v>
-      </c>
-      <c r="AD19">
-        <v>2400000000</v>
       </c>
       <c r="AE19">
         <v>2400000000</v>
@@ -2335,10 +2488,10 @@
         <v>2400000000</v>
       </c>
       <c r="AG19">
+        <v>2400000000</v>
+      </c>
+      <c r="AH19">
         <v>885849000</v>
-      </c>
-      <c r="AH19">
-        <v>900000000</v>
       </c>
       <c r="AI19">
         <v>900000000</v>
@@ -2347,7 +2500,7 @@
         <v>900000000</v>
       </c>
       <c r="AK19">
-        <v>500000000</v>
+        <v>900000000</v>
       </c>
       <c r="AL19">
         <v>500000000</v>
@@ -2356,538 +2509,550 @@
         <v>500000000</v>
       </c>
       <c r="AN19">
+        <v>500000000</v>
+      </c>
+      <c r="AO19">
         <v>700000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
         <v>-148000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-325000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-378000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-427000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-589000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-429000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-389000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-612000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-847000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>3170000000</v>
+        <v>5533317000</v>
       </c>
       <c r="C21">
-        <v>3203000000</v>
+        <v>5380005000</v>
       </c>
       <c r="D21">
-        <v>3079000000</v>
+        <v>5541636000</v>
       </c>
       <c r="E21">
-        <v>3145000000</v>
+        <v>5512648000</v>
       </c>
       <c r="F21">
-        <v>2360000000</v>
+        <v>5553377000</v>
       </c>
       <c r="G21">
+        <v>4582303000</v>
+      </c>
+      <c r="H21">
         <v>4347321000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4416612000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4600239000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>4801809000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4919112000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4626199000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4778599000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4396560000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4537672000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4352744000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3888257000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3721750000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3745229000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>3584107000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>3465042000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>3424719000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>3445276000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>3108753000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>2955842000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>3033001000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>2752751000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>2639191000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>2078459000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>2007531000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>2002717000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1922563000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>1635789000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>1604800000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1480993000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1406095000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1424799000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1261819000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1204865000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1161656000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>19886400000</v>
+      </c>
+      <c r="C22">
         <v>19268120000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>19774940000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>20047210000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>20246450000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>19375990000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>19274210000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>19277160000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>20409330000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>20349430000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>20214110000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>18796890000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>19537860000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>16822310000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>17131810000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>14657770000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>14248310000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>12058340000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>12087300000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>10126480000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>9964475000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>8313502000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>8281777000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>6474184000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>6320153000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>5406967000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>5125836000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>5011409000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>4449821000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>4407531000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>4402717000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>4322563000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>2521638000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>2504800000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>2380993000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>2306095000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>1924799000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1761819000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1704865000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1861656000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>27034000000</v>
+        <v>27817370000</v>
       </c>
       <c r="C23">
-        <v>27275000000</v>
+        <v>27034050000</v>
       </c>
       <c r="D23">
-        <v>27787000000</v>
+        <v>27274960000</v>
       </c>
       <c r="E23">
-        <v>28735000000</v>
+        <v>27786870000</v>
       </c>
       <c r="F23">
-        <v>27425000000</v>
+        <v>28735410000</v>
       </c>
       <c r="G23">
+        <v>27425240000</v>
+      </c>
+      <c r="H23">
         <v>27107100000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>27238930000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>28215120000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>28289220000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>27840530000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>26650620000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>26393550000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>24080210000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>24065790000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>21515570000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>20735630000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>18356580000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>18166940000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>16132070000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>15430790000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>13624180000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>13404720000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>11385410000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>10906810000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>9818372000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>9177673000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>8945041000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>7979445000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>7748949000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>7622786000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>7331412000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>5184792000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>5053455000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>4716117000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>4569748000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>4079002000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>3696955000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>3375129000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>3550370000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG24">
         <v>1109327000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>987256000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>926525000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>868195000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>777441000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>698677000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>634985000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>369801000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>4474000000</v>
+        <v>4637601000</v>
       </c>
       <c r="C25">
-        <v>4317000000</v>
+        <v>4473962000</v>
       </c>
       <c r="D25">
-        <v>4156000000</v>
+        <v>4316870000</v>
       </c>
       <c r="E25">
-        <v>4025000000</v>
+        <v>4155580000</v>
       </c>
       <c r="F25">
-        <v>3853000000</v>
+        <v>4024561000</v>
       </c>
       <c r="G25">
+        <v>3852531000</v>
+      </c>
+      <c r="H25">
         <v>3721246000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3600084000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3447698000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>3303482000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3127813000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2935532000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2793929000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2677972000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2566365000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2439773000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2315988000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2215736000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2103437000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1995225000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1871396000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1807123000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1727858000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1669132000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1599762000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1503641000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1443707000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1382051000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1324809000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1306461000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1200880000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>61000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1042870000</v>
-      </c>
-      <c r="AH25">
-        <v>60000</v>
       </c>
       <c r="AI25">
         <v>60000</v>
@@ -2899,140 +3064,146 @@
         <v>60000</v>
       </c>
       <c r="AL25">
-        <v>59000</v>
+        <v>60000</v>
       </c>
       <c r="AM25">
         <v>59000</v>
       </c>
       <c r="AN25">
+        <v>59000</v>
+      </c>
+      <c r="AO25">
         <v>56000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>17126000000</v>
+        <v>17181300000</v>
       </c>
       <c r="C26">
-        <v>15728000000</v>
+        <v>17126010000</v>
       </c>
       <c r="D26">
-        <v>14287000000</v>
+        <v>15727770000</v>
       </c>
       <c r="E26">
-        <v>12689000000</v>
+        <v>14286820000</v>
       </c>
       <c r="F26">
-        <v>12082000000</v>
+        <v>12689370000</v>
       </c>
       <c r="G26">
+        <v>12081940000</v>
+      </c>
+      <c r="H26">
         <v>10632870000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>9279859000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>7573144000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>7030988000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>6241012000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>5520816000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4811749000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>4224779000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>3559535000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3288885000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2942359000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2808425000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2405590000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2021241000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1731117000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1545600000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1416010000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1350410000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1128603000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1061855000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1010338000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>969583000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>941925000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>898747000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>869315000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>842980000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>819284000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>735913000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>676618000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>605600000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>552485000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>504064000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>472242000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>442771000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>824190000</v>
@@ -3047,834 +3218,852 @@
         <v>824190000</v>
       </c>
       <c r="F27">
+        <v>824190000</v>
+      </c>
+      <c r="G27">
         <v>600022000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>500022000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>20528000000</v>
+        <v>20777410000</v>
       </c>
       <c r="C28">
-        <v>19076000000</v>
+        <v>20528140000</v>
       </c>
       <c r="D28">
-        <v>17544000000</v>
+        <v>19075970000</v>
       </c>
       <c r="E28">
-        <v>15849000000</v>
+        <v>17544040000</v>
       </c>
       <c r="F28">
-        <v>15315000000</v>
+        <v>15849250000</v>
       </c>
       <c r="G28">
+        <v>15314620000</v>
+      </c>
+      <c r="H28">
         <v>13863870000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>12884080000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>11065240000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>10333320000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>9334753000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>8409294000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>7582157000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>6861505000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>6105548000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5703058000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>5238765000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>5009653000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>4496601000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>4020730000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3581956000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>3327361000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3112500000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>2973683000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>2679800000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2528966000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>2415834000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>2317233000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>2223426000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>2167318000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>2032075000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1909214000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1857708000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1724874000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1609705000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1478358000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1333561000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1204370000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1105622000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>812919000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>20528000000</v>
+        <v>20777400000</v>
       </c>
       <c r="C29">
-        <v>19076000000</v>
+        <v>20528140000</v>
       </c>
       <c r="D29">
-        <v>17544000000</v>
+        <v>19075970000</v>
       </c>
       <c r="E29">
-        <v>15849000000</v>
+        <v>17544040000</v>
       </c>
       <c r="F29">
-        <v>15315000000</v>
+        <v>15849250000</v>
       </c>
       <c r="G29">
+        <v>15314620000</v>
+      </c>
+      <c r="H29">
         <v>13863870000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>12884080000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>11065240000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>10333320000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>9334753000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>8409294000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>7582157000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>6861505000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>6105548000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>5703058000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>5238765000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>5009653000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>4496600000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>4020730000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>3581956000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>3327361000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>3112500000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>2973683000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>2679800000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>2528966000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>2415834000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>2317233000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>2223426000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>2167318000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>2032075000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1909214000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1857708000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1724874000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1609705000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1478358000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1333561000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1204370000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1105622000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>812919000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>48594770000</v>
+      </c>
+      <c r="C30">
         <v>47562190000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>46350930000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>45330900000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>44584660000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>42739860000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>40970970000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>40123020000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>39280360000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>38622540000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>37175280000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>35059910000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>33975710000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>30941710000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>30171340000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>27218630000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>25974400000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>23366230000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>22663540000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>20152800000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>19012740000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>16951540000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>16517220000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>14359100000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>13586610000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>12347340000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>11593510000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>11262270000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>10202870000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>9916267000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>9654861000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>9240626000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>7042500000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>6778329000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>6325822000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>6048106000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>5412563000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>4901325000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>4480751000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>4363289000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>445020000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>444706000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>444274000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>443963000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>442952000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>442596000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>443384000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>442895000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>441795000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>441015000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>439781000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>438807000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>438251000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>437835000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>437192000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>436599000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>436085000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>435458000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>434657000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>433393000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>432731000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>431750000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>430993000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>430054000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>429145000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>428725000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>428289000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>427940000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>427388000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>426005000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>424347000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>422911000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>421722000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>420637000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>419580000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>417249000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>414806000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>412454000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>393008000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>20777400000</v>
+      </c>
+      <c r="C32">
         <v>20528140000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>19075970000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>17544040000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>15849250000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>15314620000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>13863870000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>12884080000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>11065240000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>10333320000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>9334754000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>8409295000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>7582156000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>6861506000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>6105549000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>5703059000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>5238766000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>5009652000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>4496600000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>4020729000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>3581956000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3327360000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>3112500000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2973683000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2679801000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>2528966000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>2415834000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>2317233000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2223426000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2167317000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>2032075000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1909214000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>1857708000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>1724874000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1609705000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>1478358000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1333561000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1204370000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>1105622000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>812918900</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>10318000000</v>
+        <v>8294628000</v>
       </c>
       <c r="C33">
-        <v>11090000000</v>
+        <v>8108387000</v>
       </c>
       <c r="D33">
-        <v>11291000000</v>
+        <v>8750851000</v>
       </c>
       <c r="E33">
-        <v>12089000000</v>
+        <v>8856614000</v>
       </c>
       <c r="F33">
-        <v>10480000000</v>
+        <v>9680266000</v>
       </c>
       <c r="G33">
+        <v>8258009000</v>
+      </c>
+      <c r="H33">
         <v>8123360000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7423845000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>8359540000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>7892229000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>8867752000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>9713806000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>9931823000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>7990732000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>7589883000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>6956463000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>6565577000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>5269052000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>4435710000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>3948707000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>3676637000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>3142314000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>2671600000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>2024202000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>1630529000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>1030710000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>538857000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>299747000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>60647000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-209642000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-396758000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-557708000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-722647000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-766819000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-814365000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-768243000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-700405000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-634987000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-580110000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-325872000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>16432000000</v>
+        <v>14353080000</v>
       </c>
       <c r="C34">
-        <v>16909000000</v>
+        <v>14222120000</v>
       </c>
       <c r="D34">
-        <v>17300000000</v>
+        <v>14570300000</v>
       </c>
       <c r="E34">
-        <v>18117000000</v>
+        <v>14865560000</v>
       </c>
       <c r="F34">
-        <v>18007000000</v>
+        <v>15708070000</v>
       </c>
       <c r="G34">
+        <v>15784690000</v>
+      </c>
+      <c r="H34">
         <v>15900890000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>15827550000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>16565090000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>16284620000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>16021000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>14865690000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>14950260000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>12425750000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>12594130000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>10305020000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>10360060000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>8336586000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>8342067000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>6542373000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>6499432000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>4888783000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>4836502000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>3365431000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>3364311000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>2373966000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>2373085000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>2372218000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>2371362000</v>
-      </c>
-      <c r="AD34">
-        <v>2400000000</v>
       </c>
       <c r="AE34">
         <v>2400000000</v>
@@ -3883,10 +4072,10 @@
         <v>2400000000</v>
       </c>
       <c r="AG34">
+        <v>2400000000</v>
+      </c>
+      <c r="AH34">
         <v>885849000</v>
-      </c>
-      <c r="AH34">
-        <v>900000000</v>
       </c>
       <c r="AI34">
         <v>900000000</v>
@@ -3895,7 +4084,7 @@
         <v>900000000</v>
       </c>
       <c r="AK34">
-        <v>500000000</v>
+        <v>900000000</v>
       </c>
       <c r="AL34">
         <v>500000000</v>
@@ -3904,6 +4093,9 @@
         <v>500000000</v>
       </c>
       <c r="AN34">
+        <v>500000000</v>
+      </c>
+      <c r="AO34">
         <v>700000000</v>
       </c>
     </row>
